--- a/漫展信息/北京-漫展信息.xlsx
+++ b/漫展信息/北京-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -511,20 +506,17 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
         <v>88</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79158</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79158</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202311/zUtfsyPj1701240093229.jpeg</t>
         </is>
@@ -536,41 +528,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 北京·第十四届IJOY漫展x CGF游戏节——村上幸平专场见面会</t>
+          <t>北京·我的爸爸是条龙主题快闪店——线下集章之旅</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>国家会议中心 国家会议中心</t>
+          <t>复兴门外大街15号 长安商场</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024.01.27 09:00-01.27 17:00</t>
+          <t>2024.01.26 10:00-02.26 22:00</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>458</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81427</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79457</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/rFjnjEN51701918358910.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/A1VDdvxs1706178337277.jpeg</t>
         </is>
       </c>
     </row>
@@ -599,20 +588,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>831</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
+        <v>839</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79421</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79421</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202312/hMaHScnn1701847387181.jpeg</t>
         </is>
@@ -643,20 +631,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>510</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
+        <v>509</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78112</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78112</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
         <is>
           <t>//i2.hdslb.com/bfs/openplatform/202311/udtWOaYX1699239774163.jpeg</t>
         </is>
@@ -673,36 +660,35 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>北京·第十四届IJOY漫展x CGF游戏节——青柳尊哉专场见面会</t>
+          <t>北京·第十四届IJOY漫展xCGF游戏节</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>国家会议中心 国家会议中心</t>
+          <t>北京国家会议中心 北京国家会议中心</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.01.27 09:00-01.27 17:00</t>
+          <t>2024.01.27 09:00-01.29 17:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>277</v>
-      </c>
-      <c r="G6" t="n">
-        <v>598</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80922</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79061</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202311/ghxcik8i1701078987783.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202310/FJ39rv8s1698373922172.jpeg</t>
         </is>
       </c>
     </row>
@@ -731,20 +717,17 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9298</v>
+        <v>9603</v>
       </c>
       <c r="G7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77785</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77785</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202310/FJ39rv8s1698373922172.jpeg</t>
         </is>
@@ -775,20 +758,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>234</v>
-      </c>
-      <c r="G8" t="n">
-        <v>598</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
+        <v>241</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79059</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79059</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202311/4QhCuqq21701079008566.jpeg</t>
         </is>
@@ -819,20 +801,17 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G9" t="n">
         <v>158</v>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81223</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81223</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202401/9MnYlQSm1705910360651.jpeg</t>
         </is>
@@ -863,20 +842,17 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>673</v>
+        <v>707</v>
       </c>
       <c r="G10" t="n">
         <v>68</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77799</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77799</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202310/xzJ6MDcA1698377272373.jpeg</t>
         </is>
@@ -907,20 +883,17 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1796</v>
+        <v>2086</v>
       </c>
       <c r="G11" t="n">
         <v>75</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79320</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79320</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202401/1qf49H3Z1705478372751.jpeg</t>
         </is>
@@ -951,20 +924,17 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G12" t="n">
         <v>158</v>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80655</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80655</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/cKY6yABz1704793484477.jpeg</t>
         </is>
@@ -995,20 +965,17 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>87</v>
+        <v>1408</v>
       </c>
       <c r="G13" t="n">
-        <v>49</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80852</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80852</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
         <is>
           <t>//i2.hdslb.com/bfs/openplatform/202401/HSCMUu4p1705309498547.jpeg</t>
         </is>
@@ -1039,20 +1006,17 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2463</v>
+        <v>2710</v>
       </c>
       <c r="G14" t="n">
         <v>75</v>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77992</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77992</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202401/lhzaliY21705296699822.jpeg</t>
         </is>
@@ -1083,20 +1047,17 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="G15" t="n">
         <v>70</v>
       </c>
-      <c r="H15" t="b">
-        <v>0</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79089</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79089</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202312/pTqByZ2i1703668576004.jpeg</t>
         </is>
@@ -1127,20 +1088,17 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3750</v>
+        <v>4033</v>
       </c>
       <c r="G16" t="n">
         <v>19.9</v>
       </c>
-      <c r="H16" t="b">
-        <v>1</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79611</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79611</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202312/5br38n1G1703644868437.jpeg</t>
         </is>
@@ -1171,20 +1129,17 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>271</v>
+        <v>329</v>
       </c>
       <c r="G17" t="n">
         <v>60</v>
       </c>
-      <c r="H17" t="b">
-        <v>0</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79517</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79517</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202312/80rheYUy1702003360938.jpeg</t>
         </is>
@@ -1215,20 +1170,17 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="G18" t="n">
         <v>21.9</v>
       </c>
-      <c r="H18" t="b">
-        <v>0</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80648</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80648</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/Uap4GSw41704789232576.jpeg</t>
         </is>
@@ -1259,20 +1211,17 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G19" t="n">
         <v>48</v>
       </c>
-      <c r="H19" t="b">
-        <v>0</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80337</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80337</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202312/WWzwlVj21703832184459.jpeg</t>
         </is>
@@ -1303,20 +1252,17 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="G20" t="n">
         <v>55</v>
       </c>
-      <c r="H20" t="b">
-        <v>0</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79524</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79524</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202312/BPibBCHv1702005490875.jpeg</t>
         </is>
@@ -1343,26 +1289,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024.02.24 10:00-02.24 16:30</t>
+          <t>2024.02.24 10:00-02.24 17:00</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="G21" t="n">
         <v>65</v>
       </c>
-      <c r="H21" t="b">
-        <v>0</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77369</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77369</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/FJSimcpk1704252061898.png</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/BXg0AxJD1706166580169.png</t>
         </is>
       </c>
     </row>
@@ -1372,41 +1315,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>北京·万游引力国潮动漫嘉年华s6</t>
+          <t>北京·回声动漫轰趴节</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>半截塔路53号首创郎园station 郎园station中央车站文化中心</t>
+          <t>广渠东路一号创1958园区3-11号 echoo回声空间</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024.03.02 10:00-03.03 17:00</t>
+          <t>2024.02.24 13:00-02.25 02:00</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="G22" t="n">
-        <v>75</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81219</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79322</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/LckXJoAQ1701673379772.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/fud8fFxQ1705908806310.jpeg</t>
         </is>
       </c>
     </row>
@@ -1435,20 +1375,17 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G23" t="n">
         <v>60</v>
       </c>
-      <c r="H23" t="b">
-        <v>0</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80347</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80347</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/EgfGaYzy1704349024872.jpeg</t>
         </is>
@@ -1479,20 +1416,17 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="G24" t="n">
         <v>93</v>
       </c>
-      <c r="H24" t="b">
-        <v>0</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81043</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81043</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
         <is>
           <t>//i2.hdslb.com/bfs/openplatform/202401/CiMBnoFr1705567758852.jpeg</t>
         </is>
@@ -1523,20 +1457,17 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="G25" t="n">
         <v>60</v>
       </c>
-      <c r="H25" t="b">
-        <v>0</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78902</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78902</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202311/GKhgeikt1700729687027.jpeg</t>
         </is>
@@ -1567,20 +1498,17 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>496</v>
+        <v>2587</v>
       </c>
       <c r="G26" t="n">
         <v>49.9</v>
       </c>
-      <c r="H26" t="b">
-        <v>1</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80972</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80972</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/O9Uv3FBk1705486323502.jpeg</t>
         </is>
@@ -1597,12 +1525,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>北京·thebONE✖️GOJO超次元嘉年华02</t>
+          <t>北京·TCS卡牌嘉年华</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>小关路39号 北投购物公园</t>
+          <t>石景山路68号 北京首钢会展中心</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1611,22 +1539,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>70</v>
-      </c>
-      <c r="H27" t="b">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81443</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78896</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202311/AIIyV3Nm1700710851214.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/080XUrv51706238170152.jpeg</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1561,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-03-23</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>北京·thebONE×Ilike动漫游戏嘉年华S4</t>
+          <t>北京·thebONE✖️GOJO超次元嘉年华02</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1651,26 +1576,23 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024.03.23 10:00-03.24 17:00</t>
+          <t>2024.03.16 10:00-03.17 17:00</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1076</v>
+        <v>3278</v>
       </c>
       <c r="G28" t="n">
-        <v>58</v>
-      </c>
-      <c r="H28" t="b">
-        <v>1</v>
+        <v>29.9</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78896</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79601</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/pSrsMI9z1705646196593.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/U4lCMJJL1706088767412.jpeg</t>
         </is>
       </c>
     </row>
@@ -1685,36 +1607,33 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>北京·排球少年ONLY</t>
+          <t>北京·thebONE×Ilike动漫游戏嘉年华S4</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>永外高庄138号  大红门会展中心</t>
+          <t>小关路39号 北投购物公园</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024.03.23 10:00-03.23 17:00</t>
+          <t>2024.03.23 10:00-03.24 17:00</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>435</v>
+        <v>1101</v>
       </c>
       <c r="G29" t="n">
-        <v>60</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79601</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80510</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/wNTz3awE1704441972575.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/pSrsMI9z1705646196593.jpeg</t>
         </is>
       </c>
     </row>
@@ -1729,36 +1648,33 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>北京·西山动漫游戏嘉年华·次元漫境冬日派对</t>
+          <t>北京·万游引力国潮动漫嘉年华s6</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>石景山路68号 北京首钢会展中心</t>
+          <t>半截塔路53号首创郎园station 郎园station中央车站文化中心</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024.03.23 09:00-03.24 17:00</t>
+          <t>2024.03.23 10:00-03.24 17:00</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4294</v>
+        <v>197</v>
       </c>
       <c r="G30" t="n">
         <v>75</v>
       </c>
-      <c r="H30" t="b">
-        <v>1</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79322</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=76891</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202311/VFTEz3C11701046733452.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/LckXJoAQ1701673379772.jpeg</t>
         </is>
       </c>
     </row>
@@ -1768,41 +1684,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>北京·IDOx梦次元动漫游戏嘉年华3rd</t>
+          <t>北京·排球少年ONLY</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>北京展览馆 北京展览馆</t>
+          <t>永外高庄138号  大红门会展中心</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024.04.04 09:30-04.05 17:00</t>
+          <t>2024.03.23 10:00-03.23 17:00</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>65</v>
+        <v>488</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80510</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80825</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/NTLMJXBP1705298780296.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/wNTz3awE1704441972575.jpeg</t>
         </is>
       </c>
     </row>
@@ -1812,41 +1725,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>北京·第十五届IJOY国际动漫游戏狂欢节/CGF游戏节</t>
+          <t>北京·西山动漫游戏嘉年华·次元漫境冬日派对</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>北京国家会议中心 北京国家会议中心</t>
+          <t>石景山路68号 北京首钢会展中心</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024.04.04 09:00-04.05 17:00</t>
+          <t>2024.03.23 09:00-03.24 17:00</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>43</v>
+        <v>4330</v>
       </c>
       <c r="G32" t="n">
-        <v>70</v>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=76891</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81174</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/EJejgoZa1705892035599.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202311/VFTEz3C11701046733452.jpeg</t>
         </is>
       </c>
     </row>
@@ -1856,41 +1766,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>北京·IDO动漫游戏嘉年华45th</t>
+          <t>北京·IDOx梦次元动漫游戏嘉年华3rd</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>亦庄荣昌东街6号 北京亦创国际会展中心</t>
+          <t>北京展览馆 北京展览馆</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024.05.01 09:30-05.03 17:00</t>
+          <t>2024.04.04 09:30-04.05 17:00</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>256</v>
-      </c>
-      <c r="G33" t="n">
-        <v>75</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80825</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80645</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/rrPkZdF81704786315359.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/NTLMJXBP1705298780296.jpeg</t>
         </is>
       </c>
     </row>
@@ -1900,39 +1809,118 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>北京·第15届IJOY漫展xCGF游戏节</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>北京国家会议中心 北京国家会议中心</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2024.04.04 09:00-04.05 17:00</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>257</v>
+      </c>
+      <c r="G34" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81174</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/EJejgoZa1705892035599.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>2024-05-01</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>北京·第十六届IJOY国际动漫游戏狂欢节/CGF游戏节</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>北京·IDO动漫游戏嘉年华45th</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>亦庄荣昌东街6号 北京亦创国际会展中心</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2024.05.01 09:30-05.03 17:00</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>381</v>
+      </c>
+      <c r="G35" t="n">
+        <v>75</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80645</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/rrPkZdF81704786315359.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>北京·第十六届IJOY漫展xCGF游戏节</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>北京国家会议中心 北京国家会议中心</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2024.05.01 09:00-05.03 17:00</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>32</v>
-      </c>
-      <c r="G34" t="n">
-        <v>70</v>
-      </c>
-      <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr">
+      <c r="F36" t="n">
+        <v>243</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81183</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202401/khTgDsd31705893623652.jpeg</t>
         </is>
@@ -1949,7 +1937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1993,15 +1981,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -2013,41 +1996,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>北京·Nanawo Akari  七音阿卡丽-演唱会</t>
+          <t>北京·【7折】拉德斯基进行曲—— 维也纳之声“金山爱乐乐团”2024新春音乐会</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>建国门外郎家园10号61幢一层A3-06、二层A3-06 East live</t>
+          <t>西城区北新华街1号北京音乐厅 北京音乐厅</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024.01.25 20:00-01.25 22:00</t>
+          <t>2024.02.08 19:30-02.08 21:00</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>380</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80932</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80276</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/CoNbgCpO1703644783043.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/3Ges982e1705475289966.jpeg</t>
         </is>
       </c>
     </row>
@@ -2057,41 +2037,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-03-03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">北京·戳心场！向着疾风前进《你的名字》《火影忍者》《鬼灭之刃》热血动漫名曲ACG音乐演奏会 </t>
+          <t>北京·次元音浪——少女派对</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>三里屯SOHO下沉广场最南端,6号商场B1层 三里屯·爱乐汇艺术空间</t>
+          <t>东郎电影创意产业园 东郎电影创意产业园</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024.01.26 19:30-01.26 21:00</t>
+          <t>2024.03.03 13:00-03.03 16:00</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>90</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80650</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80452</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/bZRwDkbn1704340285463.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/z5xmbhc61704790463449.png</t>
         </is>
       </c>
     </row>
@@ -2101,41 +2078,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-05-18</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>北京·【7折】拉德斯基进行曲—— 维也纳之声“金山爱乐乐团”2024新春音乐会</t>
+          <t>北京·Rie fu日本知名唱作歌手2024出道20周年中国巡回演唱会</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>西城区北新华街1号北京音乐厅 北京音乐厅</t>
+          <t>奥园西路1号院4-5号楼 福浪LiveHouse</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.02.08 19:30-02.08 21:00</t>
+          <t>2024.05.18 20:00-05.18 22:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>180</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
+        <v>280</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81445</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80932</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/3Ges982e1705475289966.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/6e9JD6401706239890264.jpeg</t>
         </is>
       </c>
     </row>
@@ -2145,83 +2119,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>2024-05-25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>北京·次元音浪——少女派对</t>
+          <t>北京·英文原版音乐剧《剧院魅影续作：真爱永恒》Andrew Lloyd Webber’s  Love Never Dies</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>东郎电影创意产业园 东郎电影创意产业园</t>
+          <t>东直门南大街14号 北京保利剧院</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.03.03 13:00-03.03 16:00</t>
+          <t>2024.05.25 19:30-05.30 22:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>88</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
+        <v>680</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80957</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80650</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/z5xmbhc61704790463449.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2024-05-25</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>北京·英文原版音乐剧《剧院魅影续作：真爱永恒》Andrew Lloyd Webber’s  Love Never Dies</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>东直门南大街14号 北京保利剧院</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2024.05.25 19:30-05.30 22:00</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>14</v>
-      </c>
-      <c r="G6" t="n">
-        <v>680</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80957</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/0MQ6YUgo1705474811213.jpeg</t>
         </is>
@@ -2238,7 +2165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2282,15 +2209,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -2321,20 +2243,17 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G2" t="n">
         <v>30</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79831</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79831</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202312/SlgzFC7D1702967178610.jpeg</t>
         </is>
@@ -2365,20 +2284,17 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>939</v>
+        <v>993</v>
       </c>
       <c r="G3" t="n">
         <v>20</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80186</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80186</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202312/yf8VthSg1703498739957.jpeg</t>
         </is>
@@ -2395,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2439,15 +2355,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -2478,20 +2389,17 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G2" t="n">
         <v>30</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79831</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79831</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202312/SlgzFC7D1702967178610.jpeg</t>
         </is>
@@ -2522,20 +2430,17 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G3" t="n">
         <v>88</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79158</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79158</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202311/zUtfsyPj1701240093229.jpeg</t>
         </is>
@@ -2566,20 +2471,17 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>939</v>
+        <v>993</v>
       </c>
       <c r="G4" t="n">
         <v>20</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80186</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80186</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202312/yf8VthSg1703498739957.jpeg</t>
         </is>
@@ -2591,41 +2493,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>北京·Nanawo Akari  七音阿卡丽-演唱会</t>
+          <t>北京·我的爸爸是条龙主题快闪店——线下集章之旅</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>建国门外郎家园10号61幢一层A3-06、二层A3-06 East live</t>
+          <t>复兴门外大街15号 长安商场</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.01.25 20:00-01.25 22:00</t>
+          <t>2024.01.26 10:00-02.26 22:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>380</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81427</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80276</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/CoNbgCpO1703644783043.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/A1VDdvxs1706178337277.jpeg</t>
         </is>
       </c>
     </row>
@@ -2635,41 +2534,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">北京·戳心场！向着疾风前进《你的名字》《火影忍者》《鬼灭之刃》热血动漫名曲ACG音乐演奏会 </t>
+          <t>北京·原神x穹铁北京同人嘉年华6th</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>三里屯SOHO下沉广场最南端,6号商场B1层 三里屯·爱乐汇艺术空间</t>
+          <t>北京国家会议中心 北京国家会议中心</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.01.26 19:30-01.26 21:00</t>
+          <t>2024.01.27 09:00-01.29 17:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>34</v>
-      </c>
-      <c r="G6" t="n">
-        <v>90</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
+        <v>839</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79421</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80452</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/bZRwDkbn1704340285463.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/hMaHScnn1701847387181.jpeg</t>
         </is>
       </c>
     </row>
@@ -2684,36 +2582,35 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 北京·第十四届IJOY漫展x CGF游戏节——村上幸平专场见面会</t>
+          <t>北京·国乙同好嘉年华5th</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>国家会议中心 国家会议中心</t>
+          <t>北京国家会议中心 北京国家会议中心</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.01.27 09:00-01.27 17:00</t>
+          <t>2024.01.27 09:00-01.29 17:00</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>93</v>
-      </c>
-      <c r="G7" t="n">
-        <v>458</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
+        <v>509</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78112</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79457</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/rFjnjEN51701918358910.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202311/udtWOaYX1699239774163.jpeg</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2625,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>北京·原神x穹铁北京同人嘉年华6th</t>
+          <t>北京·第十四届IJOY漫展xCGF游戏节</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2742,22 +2639,21 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>831</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80922</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79421</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/hMaHScnn1701847387181.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202310/FJ39rv8s1698373922172.jpeg</t>
         </is>
       </c>
     </row>
@@ -2772,7 +2668,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>北京·国乙同好嘉年华5th</t>
+          <t>北京·第十四届IJOY漫展xCGF游戏节</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2786,22 +2682,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>510</v>
+        <v>9603</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77785</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78112</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202311/udtWOaYX1699239774163.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202310/FJ39rv8s1698373922172.jpeg</t>
         </is>
       </c>
     </row>
@@ -2811,12 +2704,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>北京·第十四届IJOY漫展x CGF游戏节——青柳尊哉专场见面会</t>
+          <t>北京·第十四届IJOY漫展x CGF游戏节——岩永彻也专场见面会</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2826,26 +2719,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.01.27 09:00-01.27 17:00</t>
+          <t>2024.01.28 09:00-01.28 17:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>277</v>
-      </c>
-      <c r="G10" t="n">
-        <v>598</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
+        <v>241</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79059</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79061</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202311/ghxcik8i1701078987783.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202311/4QhCuqq21701079008566.jpeg</t>
         </is>
       </c>
     </row>
@@ -2855,41 +2747,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>北京·第十四届IJOY漫展xCGF游戏节</t>
+          <t>北京·跨次元派对2.0童话奇妙夜</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>北京国家会议中心 北京国家会议中心</t>
+          <t>丽泽天地购物中心 丽泽天地购物中心</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.01.27 09:00-01.29 17:00</t>
+          <t>2024.02.02 20:00-02.03 02:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9298</v>
+        <v>36</v>
       </c>
       <c r="G11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81223</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77785</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202310/FJ39rv8s1698373922172.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/9MnYlQSm1705910360651.jpeg</t>
         </is>
       </c>
     </row>
@@ -2899,41 +2788,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>北京·第十四届IJOY漫展x CGF游戏节——岩永彻也专场见面会</t>
+          <t>北京·EXA·孤独摇滚ONLY</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>国家会议中心 国家会议中心</t>
+          <t>西三旗桥北路西88号 北京工美蓝孔雀商务酒店</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.01.28 09:00-01.28 17:00</t>
+          <t>2024.02.03 09:30-02.03 16:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>234</v>
+        <v>707</v>
       </c>
       <c r="G12" t="n">
-        <v>598</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77799</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79059</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202311/4QhCuqq21701079008566.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202310/xzJ6MDcA1698377272373.jpeg</t>
         </is>
       </c>
     </row>
@@ -2943,41 +2829,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>北京·跨次元派对2.0童话奇妙夜</t>
+          <t>北京·万游引力x云果 二次元新春大聚会</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>丽泽天地购物中心 丽泽天地购物中心</t>
+          <t>嘉创二路6号 JDG英特尔电子竞技中心</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.02.02 20:00-02.03 02:00</t>
+          <t>2024.02.03 10:00-02.03 17:00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>24</v>
+        <v>2086</v>
       </c>
       <c r="G13" t="n">
-        <v>158</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79320</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81223</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/9MnYlQSm1705910360651.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/1qf49H3Z1705478372751.jpeg</t>
         </is>
       </c>
     </row>
@@ -2992,36 +2875,33 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>北京·EXA·孤独摇滚ONLY</t>
+          <t>北京·万游引力x云果次元新春狂欢节  知名配音演员 刘照坤 专场见面会</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>西三旗桥北路西88号 北京工美蓝孔雀商务酒店</t>
+          <t>嘉创二路6号 JDG英特尔电子竞技中心</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.02.03 09:30-02.03 16:00</t>
+          <t>2024.02.03 10:00-02.03 17:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>673</v>
+        <v>48</v>
       </c>
       <c r="G14" t="n">
-        <v>68</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80655</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77799</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202310/xzJ6MDcA1698377272373.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/cKY6yABz1704793484477.jpeg</t>
         </is>
       </c>
     </row>
@@ -3036,36 +2916,33 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>北京·万游引力x云果 二次元新春大聚会</t>
+          <t>北京·维度*次元潮流联动展</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>嘉创二路6号 JDG英特尔电子竞技中心</t>
+          <t>方庄芳古园一区18号楼 北京NTP新城广场</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 17:00</t>
+          <t>2024.02.03 10:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1796</v>
+        <v>1408</v>
       </c>
       <c r="G15" t="n">
-        <v>75</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80852</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79320</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/1qf49H3Z1705478372751.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/HSCMUu4p1705309498547.jpeg</t>
         </is>
       </c>
     </row>
@@ -3075,41 +2952,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>北京·万游引力x云果次元新春狂欢节  知名配音演员 刘照坤 专场见面会</t>
+          <t>北京·【7折】拉德斯基进行曲—— 维也纳之声“金山爱乐乐团”2024新春音乐会</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>嘉创二路6号 JDG英特尔电子竞技中心</t>
+          <t>西城区北新华街1号北京音乐厅 北京音乐厅</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 17:00</t>
+          <t>2024.02.08 19:30-02.08 21:00</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>158</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80932</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80655</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/cKY6yABz1704793484477.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/3Ges982e1705475289966.jpeg</t>
         </is>
       </c>
     </row>
@@ -3119,41 +2993,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>北京·维度*次元潮流联动展</t>
+          <t>北京·ICOS SP漫展03x五只猫</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>方庄芳古园一区18号楼 北京NTP新城广场</t>
+          <t>北京电影学院影视文化产业创新园平房园区 北京五只猫娱乐Mall</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.04 17:00</t>
+          <t>2024.02.13 09:00-02.14 17:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>87</v>
+        <v>2710</v>
       </c>
       <c r="G17" t="n">
-        <v>49</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77992</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80852</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/HSCMUu4p1705309498547.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/lhzaliY21705296699822.jpeg</t>
         </is>
       </c>
     </row>
@@ -3163,41 +3034,38 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>北京·【7折】拉德斯基进行曲—— 维也纳之声“金山爱乐乐团”2024新春音乐会</t>
+          <t>北京·Look&amp;thebONE情人节专场</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>西城区北新华街1号北京音乐厅 北京音乐厅</t>
+          <t>小关路39号 北投购物公园</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.02.08 19:30-02.08 21:00</t>
+          <t>2024.02.13 10:00-02.15 17:00</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="G18" t="n">
-        <v>180</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79089</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80932</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/3Ges982e1705475289966.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/pTqByZ2i1703668576004.jpeg</t>
         </is>
       </c>
     </row>
@@ -3212,36 +3080,33 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>北京·ICOS SP漫展03x五只猫</t>
+          <t>北京·thebONE游戏动漫节</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>北京电影学院影视文化产业创新园平房园区 北京五只猫娱乐Mall</t>
+          <t>小关路39号 北投购物公园</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024.02.13 09:00-02.14 17:00</t>
+          <t>2024.02.13 10:00-02.15 17:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2463</v>
+        <v>4033</v>
       </c>
       <c r="G19" t="n">
-        <v>75</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
+        <v>19.9</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79611</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77992</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/lhzaliY21705296699822.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/5br38n1G1703644868437.jpeg</t>
         </is>
       </c>
     </row>
@@ -3251,41 +3116,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>北京·Look&amp;thebONE情人节专场</t>
+          <t>北京·原神X星穹铁道ONLY</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>小关路39号 北投购物公园</t>
+          <t>永外高庄138号  大红门会展中心</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024.02.13 10:00-02.15 17:00</t>
+          <t>2024.02.16 10:00-02.16 17:00</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>116</v>
+        <v>329</v>
       </c>
       <c r="G20" t="n">
-        <v>70</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79517</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79089</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/pTqByZ2i1703668576004.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/80rheYUy1702003360938.jpeg</t>
         </is>
       </c>
     </row>
@@ -3295,41 +3157,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>北京·thebONE游戏动漫节</t>
+          <t>北京·古谷PLAZA(谷子市集)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>小关路39号 北投购物公园</t>
+          <t>东打磨厂街7号宝鼎中心A座 新活馆</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024.02.13 10:00-02.15 17:00</t>
+          <t>2024.02.16 13:00-02.17 17:30</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3750</v>
+        <v>157</v>
       </c>
       <c r="G21" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
+        <v>21.9</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80648</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79611</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/5br38n1G1703644868437.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/Uap4GSw41704789232576.jpeg</t>
         </is>
       </c>
     </row>
@@ -3339,41 +3198,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>北京·原神X星穹铁道ONLY</t>
+          <t>北京·SISP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>永外高庄138号  大红门会展中心</t>
+          <t>东坝中路38号 金隅嘉品MALL</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.16 17:00</t>
+          <t>2024.02.17 13:00-02.18 19:00</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="G22" t="n">
-        <v>60</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80337</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79517</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/80rheYUy1702003360938.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/WWzwlVj21703832184459.jpeg</t>
         </is>
       </c>
     </row>
@@ -3383,41 +3239,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>北京·古谷PLAZA(谷子市集)</t>
+          <t>北京·第五届璃樱动漫嘉年华</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>东打磨厂街7号宝鼎中心A座 新活馆</t>
+          <t>永外高庄138号  大红门会展中心</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024.02.16 13:00-02.17 17:30</t>
+          <t>2024.02.17 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="G23" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79524</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80648</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/Uap4GSw41704789232576.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/BPibBCHv1702005490875.jpeg</t>
         </is>
       </c>
     </row>
@@ -3427,41 +3280,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-02-17</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>北京·SISP动漫游戏嘉年华</t>
+          <t xml:space="preserve"> 北京·2024年新春次元嘉年华</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>东坝中路38号 金隅嘉品MALL</t>
+          <t>荣华中路国融国际 大兴云果国潮</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024.02.17 13:00-02.18 19:00</t>
+          <t>2024.02.24 10:00-02.24 17:00</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="G24" t="n">
-        <v>48</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77369</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80337</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/WWzwlVj21703832184459.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/BXg0AxJD1706166580169.png</t>
         </is>
       </c>
     </row>
@@ -3471,41 +3321,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-02-17</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>北京·第五届璃樱动漫嘉年华</t>
+          <t>北京·回声动漫轰趴节</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>永外高庄138号  大红门会展中心</t>
+          <t>广渠东路一号创1958园区3-11号 echoo回声空间</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024.02.17 10:00-02.17 17:00</t>
+          <t>2024.02.24 13:00-02.25 02:00</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>55</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81219</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79524</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/BPibBCHv1702005490875.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/fud8fFxQ1705908806310.jpeg</t>
         </is>
       </c>
     </row>
@@ -3515,41 +3362,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-03-03</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 北京·2024年新春次元嘉年华</t>
+          <t>北京·次元音浪——少女派对</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>荣华中路国融国际 大兴云果国潮</t>
+          <t>东郎电影创意产业园 东郎电影创意产业园</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024.02.24 10:00-02.24 16:30</t>
+          <t>2024.03.03 13:00-03.03 16:00</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="G26" t="n">
-        <v>65</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80650</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77369</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/FJSimcpk1704252061898.png</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/z5xmbhc61704790463449.png</t>
         </is>
       </c>
     </row>
@@ -3559,41 +3403,38 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>北京·万游引力国潮动漫嘉年华s6</t>
+          <t>北京·ACG GO·岁末游园会</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>半截塔路53号首创郎园station 郎园station中央车站文化中心</t>
+          <t>北花园路1号 超级蜂巢</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024.03.02 10:00-03.03 17:00</t>
+          <t>2024.03.09 10:00-03.10 17:00</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="G27" t="n">
-        <v>75</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80347</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79322</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/LckXJoAQ1701673379772.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/EgfGaYzy1704349024872.jpeg</t>
         </is>
       </c>
     </row>
@@ -3603,41 +3444,38 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>北京·次元音浪——少女派对</t>
+          <t>北京·VOCALOID ONLY同人展</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>东郎电影创意产业园 东郎电影创意产业园</t>
+          <t>永外高庄138号 大红门国际会展中心</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024.03.03 13:00-03.03 16:00</t>
+          <t>2024.03.09 12:00-03.09 19:00</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="G28" t="n">
-        <v>88</v>
-      </c>
-      <c r="H28" t="b">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81043</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80650</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/z5xmbhc61704790463449.png</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/CiMBnoFr1705567758852.jpeg</t>
         </is>
       </c>
     </row>
@@ -3647,41 +3485,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>北京·ACG GO·岁末游园会</t>
+          <t>北京· YiYou 运动番only 2.0</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>北花园路1号 超级蜂巢</t>
+          <t>京开高速入口与京开高速交叉口西180米 北京双马文体创业园</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024.03.09 10:00-03.10 17:00</t>
+          <t>2024.03.16 09:30-03.17 18:00</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="G29" t="n">
         <v>60</v>
       </c>
-      <c r="H29" t="b">
-        <v>0</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78902</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80347</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/EgfGaYzy1704349024872.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202311/GKhgeikt1700729687027.jpeg</t>
         </is>
       </c>
     </row>
@@ -3691,41 +3526,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>北京·VOCALOID ONLY同人展</t>
+          <t>北京·Aw动漫游戏嘉年华7th- 来自异世界的召唤</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>永外高庄138号 大红门国际会展中心</t>
+          <t>石景山路68号 北京首钢会展中心</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024.03.09 12:00-03.09 19:00</t>
+          <t>2024.03.16 10:00-03.17 17:00</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>51</v>
+        <v>2587</v>
       </c>
       <c r="G30" t="n">
-        <v>93</v>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
+        <v>49.9</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80972</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81043</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/CiMBnoFr1705567758852.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/O9Uv3FBk1705486323502.jpeg</t>
         </is>
       </c>
     </row>
@@ -3740,36 +3572,33 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>北京· YiYou 运动番only 2.0</t>
+          <t>北京·TCS卡牌嘉年华</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>京开高速入口与京开高速交叉口西180米 北京双马文体创业园</t>
+          <t>石景山路68号 北京首钢会展中心</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024.03.16 09:30-03.17 18:00</t>
+          <t>2024.03.16 10:00-03.17 17:00</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>60</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81443</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78902</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202311/GKhgeikt1700729687027.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/080XUrv51706238170152.jpeg</t>
         </is>
       </c>
     </row>
@@ -3784,12 +3613,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>北京·Aw动漫游戏嘉年华7th- 来自异世界的召唤</t>
+          <t>北京·thebONE✖️GOJO超次元嘉年华02</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>石景山路68号 北京首钢会展中心</t>
+          <t>小关路39号 北投购物公园</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3798,22 +3627,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>496</v>
+        <v>3278</v>
       </c>
       <c r="G32" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="H32" t="b">
-        <v>1</v>
+        <v>29.9</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78896</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80972</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/O9Uv3FBk1705486323502.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/U4lCMJJL1706088767412.jpeg</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3649,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>北京·thebONE✖️GOJO超次元嘉年华02</t>
+          <t>北京·thebONE×Ilike动漫游戏嘉年华S4</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3838,26 +3664,23 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024.03.16 10:00-03.17 17:00</t>
+          <t>2024.03.23 10:00-03.24 17:00</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>107</v>
+        <v>1101</v>
       </c>
       <c r="G33" t="n">
-        <v>70</v>
-      </c>
-      <c r="H33" t="b">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79601</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78896</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202311/AIIyV3Nm1700710851214.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/pSrsMI9z1705646196593.jpeg</t>
         </is>
       </c>
     </row>
@@ -3872,12 +3695,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>北京·thebONE×Ilike动漫游戏嘉年华S4</t>
+          <t>北京·万游引力国潮动漫嘉年华s6</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>小关路39号 北投购物公园</t>
+          <t>半截塔路53号首创郎园station 郎园station中央车站文化中心</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3886,22 +3709,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1076</v>
+        <v>197</v>
       </c>
       <c r="G34" t="n">
-        <v>58</v>
-      </c>
-      <c r="H34" t="b">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79322</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79601</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/pSrsMI9z1705646196593.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/LckXJoAQ1701673379772.jpeg</t>
         </is>
       </c>
     </row>
@@ -3930,20 +3750,17 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="G35" t="n">
         <v>60</v>
       </c>
-      <c r="H35" t="b">
-        <v>0</v>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80510</t>
+        </is>
       </c>
       <c r="I35" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80510</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/wNTz3awE1704441972575.jpeg</t>
         </is>
@@ -3974,20 +3791,17 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4294</v>
+        <v>4330</v>
       </c>
       <c r="G36" t="n">
         <v>75</v>
       </c>
-      <c r="H36" t="b">
-        <v>1</v>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=76891</t>
+        </is>
       </c>
       <c r="I36" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=76891</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202311/VFTEz3C11701046733452.jpeg</t>
         </is>
@@ -4018,20 +3832,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>65</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="b">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80825</t>
+        </is>
       </c>
       <c r="I37" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80825</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202401/NTLMJXBP1705298780296.jpeg</t>
         </is>
@@ -4048,7 +3861,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>北京·第十五届IJOY国际动漫游戏狂欢节/CGF游戏节</t>
+          <t>北京·第15届IJOY漫展xCGF游戏节</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4062,20 +3875,17 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="G38" t="n">
-        <v>70</v>
-      </c>
-      <c r="H38" t="b">
-        <v>0</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81174</t>
+        </is>
       </c>
       <c r="I38" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81174</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202401/EJejgoZa1705892035599.jpeg</t>
         </is>
@@ -4106,20 +3916,17 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>256</v>
+        <v>381</v>
       </c>
       <c r="G39" t="n">
         <v>75</v>
       </c>
-      <c r="H39" t="b">
-        <v>0</v>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80645</t>
+        </is>
       </c>
       <c r="I39" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80645</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/rrPkZdF81704786315359.jpeg</t>
         </is>
@@ -4136,7 +3943,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>北京·第十六届IJOY国际动漫游戏狂欢节/CGF游戏节</t>
+          <t>北京·第十六届IJOY漫展xCGF游戏节</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4150,20 +3957,17 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c r="G40" t="n">
-        <v>70</v>
-      </c>
-      <c r="H40" t="b">
-        <v>0</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81183</t>
+        </is>
       </c>
       <c r="I40" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81183</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202401/khTgDsd31705893623652.jpeg</t>
         </is>
@@ -4175,39 +3979,77 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>北京·Rie fu日本知名唱作歌手2024出道20周年中国巡回演唱会</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>奥园西路1号院4-5号楼 福浪LiveHouse</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2024.05.18 20:00-05.18 22:00</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>280</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81445</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/6e9JD6401706239890264.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>2024-05-25</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>北京·英文原版音乐剧《剧院魅影续作：真爱永恒》Andrew Lloyd Webber’s  Love Never Dies</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>东直门南大街14号 北京保利剧院</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2024.05.25 19:30-05.30 22:00</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>14</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="F42" t="n">
+        <v>23</v>
+      </c>
+      <c r="G42" t="n">
         <v>680</v>
       </c>
-      <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80957</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/0MQ6YUgo1705474811213.jpeg</t>
         </is>
